--- a/ClosedXML_Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
@@ -578,13 +578,15 @@
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
-      <x:c r="A13" s="0">
+      <x:c r="A13" s="0" t="str">
         <x:f>SUM(8:9)</x:f>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
-      <x:c r="A14" s="0">
+      <x:c r="A14" s="0" t="str">
         <x:f>SUM(8:9)</x:f>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/ClosedXML_Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
@@ -559,6 +559,12 @@
         <x:f t="array" ref="B6:B6">A2+A3</x:f>
         <x:v>2</x:v>
       </x:c>
+      <x:c r="C6" s="0">
+        <x:f t="array" ref="C6:D6">TRANSPOSE(A2:A3)</x:f>
+      </x:c>
+      <x:c r="D6" s="0">
+        <x:f t="array"/>
+      </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="n">

--- a/ClosedXML_Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
@@ -103,7 +103,6 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FF00FFFF"/>
-        <x:bgColor rgb="FF00FFFF"/>
       </x:patternFill>
     </x:fill>
   </x:fills>

--- a/ClosedXML_Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
@@ -482,7 +482,7 @@
       <x:c r="B2" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="str">
+      <x:c r="C2" s="0" t="n">
         <x:f>A2+$B$2</x:f>
         <x:v>3</x:v>
       </x:c>
@@ -507,7 +507,7 @@
       <x:c r="B3" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="str">
+      <x:c r="C3" s="0" t="n">
         <x:f>A3+$B$3</x:f>
         <x:v>3</x:v>
       </x:c>
@@ -554,7 +554,7 @@
       <x:c r="A6" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="str">
+      <x:c r="B6" s="0" t="n">
         <x:f t="array" ref="B6:B6">A2+A3</x:f>
         <x:v>2</x:v>
       </x:c>
@@ -571,25 +571,25 @@
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
-      <x:c r="A11" s="0" t="str">
+      <x:c r="A11" s="0" t="n">
         <x:f>A2 + A10_R1C1_A10_R1C1</x:f>
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
-      <x:c r="A12" s="0" t="str">
+      <x:c r="A12" s="0" t="n">
         <x:f>$A$2 + A10_R1C1_A10_R1C1</x:f>
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
-      <x:c r="A13" s="0" t="str">
+      <x:c r="A13" s="0" t="n">
         <x:f>SUM(8:9)</x:f>
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
-      <x:c r="A14" s="0" t="str">
+      <x:c r="A14" s="0" t="n">
         <x:f>SUM(8:9)</x:f>
         <x:v>0</x:v>
       </x:c>

--- a/ClosedXML_Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
@@ -60,7 +60,7 @@
     <x:t>"Test" &amp; A4 &amp; "R3C2"</x:t>
   </x:si>
   <x:si>
-    <x:t>="Test" &amp; RC[-2] &amp; "R3C2"</x:t>
+    <x:t>"Test" &amp; RC[-2] &amp; "R3C2"</x:t>
   </x:si>
   <x:si>
     <x:t>TestAR3C2</x:t>
@@ -447,7 +447,7 @@
     <x:col min="2" max="2" width="7.110625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="11.020625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="20.190625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="24.200625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="23.160625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="10.330625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="11.170625" style="0" customWidth="1"/>
   </x:cols>
@@ -554,9 +554,8 @@
       <x:c r="A6" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="n">
+      <x:c r="B6" s="0">
         <x:f t="array" ref="B6:B6">A2+A3</x:f>
-        <x:v>2</x:v>
       </x:c>
       <x:c r="C6" s="0">
         <x:f t="array" ref="C6:D6">TRANSPOSE(A2:A3)</x:f>

--- a/ClosedXML_Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
@@ -443,13 +443,13 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="14.560625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="7.110625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.020625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="20.190625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="24.200625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.330625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="11.170625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="12.210625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="5.930625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.340625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="16.740625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="20.020625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="8.580625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="9.240625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">
